--- a/lifecycle_data2.xlsx
+++ b/lifecycle_data2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1199,6 +1199,441 @@
         <v>80</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor for detecting distances and distance information from the µm range to 60 m.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor for detecting distances and distance information from the µm range to 60 m.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor, no longer available, with alternatives suggested.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor for detecting distances and distance information from the µm range to 60 m.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor, no longer available, with alternatives suggested.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Baumer Electric</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor by Baumer, no longer available and discontinued.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor, discontinued product, not RoHS compliant.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Baumer Electric</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor for detecting distances and distance information from the µm range to 60 m.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor, no longer available, discontinued product.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor, no longer available, discontinued product.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor, no longer available, with alternatives suggested.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor for detecting distances and distance information from the µm range to 60 m.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FVDK12P6101/S35A</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor, no longer available, with alternatives suggested.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Baumer</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fiber optic sensor</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
